--- a/testDAL/GetReport.xlsx
+++ b/testDAL/GetReport.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="测试总况" sheetId="1" r:id="rId1"/>
-    <sheet name="测试详情" sheetId="2" r:id="rId2"/>
+    <sheet name="测试总况1" sheetId="1" r:id="rId1"/>
+    <sheet name="测试详情2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -305,7 +305,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -846,7 +848,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" ht="30" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>40</v>
       </c>
@@ -893,7 +895,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" ht="30" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>

--- a/testDAL/GetReport.xlsx
+++ b/testDAL/GetReport.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="2715" windowWidth="16005" windowHeight="2160"/>
   </bookViews>
   <sheets>
     <sheet name="测试总况1" sheetId="1" r:id="rId1"/>
     <sheet name="测试详情2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:G7"/>
 </workbook>
 </file>
 
@@ -207,12 +208,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -220,7 +221,7 @@
       <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +229,7 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -236,7 +237,7 @@
       <b/>
       <sz val="18"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -245,8 +246,15 @@
       <u/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -291,8 +299,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,20 +319,50 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -392,6 +436,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -426,6 +471,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -601,215 +647,213 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.75" customWidth="1"/>
+    <col min="2" max="6" width="20.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>2</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1"/>
-    <row r="9" spans="1:10">
-      <c r="A9" s="2" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1"/>
+    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
@@ -817,167 +861,171 @@
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="A9:J9"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:15" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-    </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="M2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="N2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="O2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1001</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" s="3" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="1">
         <v>1001</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="1"/>
+      <c r="O4" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -985,6 +1033,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="O4" r:id="rId1"/>
   </hyperlinks>
